--- a/testcases/test_houtai.xlsx
+++ b/testcases/test_houtai.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="19275" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="test_cases" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>method</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>https://test-api2.wsjw88.com/api/admin/twHelpCenter/queryAll</t>
+  </si>
+  <si>
+    <t>Access-Domain=supper</t>
   </si>
 </sst>
 </file>
@@ -696,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,6 +716,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1251,7 +1257,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1308,15 +1314,15 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="30" customHeight="1" spans="1:8">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H3" s="5">
         <v>1001</v>
@@ -1324,7 +1330,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://test-api2.wsjw88.com/api/open/user/login"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://test-api2.wsjw88.com/api/open/user/login" tooltip="https://test-api2.wsjw88.com/api/open/user/login"/>
     <hyperlink ref="B3" r:id="rId2" display="https://test-api2.wsjw88.com/api/admin/twHelpCenter/queryAll"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
